--- a/Resurs1.xlsx
+++ b/Resurs1.xlsx
@@ -791,7 +791,11 @@
           <t>Eksploatujący:</t>
         </is>
       </c>
-      <c r="D7" s="51" t="inlineStr"/>
+      <c r="D7" s="51" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="E7" s="63" t="n"/>
       <c r="F7" s="63" t="n"/>
       <c r="G7" s="63" t="n"/>
@@ -1041,10 +1045,8 @@
           <t>+</t>
         </is>
       </c>
-      <c r="L21" s="15" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
+      <c r="L21" s="15" t="n">
+        <v>1</v>
       </c>
       <c r="M21" s="20" t="inlineStr">
         <is>

--- a/Resurs1.xlsx
+++ b/Resurs1.xlsx
@@ -413,6 +413,134 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>66676</colOff>
+      <row>40</row>
+      <rowOff>180974</rowOff>
+    </from>
+    <to>
+      <col>1</col>
+      <colOff>38101</colOff>
+      <row>45</row>
+      <rowOff>171449</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Obraz 1"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="66676" y="8077199"/>
+          <a:ext cx="628650" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>142876</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>2</col>
+      <colOff>114300</colOff>
+      <row>2</row>
+      <rowOff>34943</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Obraz 2"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="142876" y="0"/>
+          <a:ext cx="761999" cy="415943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>7</col>
+      <colOff>23775</colOff>
+      <row>36</row>
+      <rowOff>134025</rowOff>
+    </from>
+    <to>
+      <col>11</col>
+      <colOff>677305</colOff>
+      <row>42</row>
+      <rowOff>1</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Obraz 4"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="2766975" y="7192050"/>
+          <a:ext cx="2148955" cy="1085176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -791,11 +919,7 @@
           <t>Eksploatujący:</t>
         </is>
       </c>
-      <c r="D7" s="51" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+      <c r="D7" s="51" t="inlineStr"/>
       <c r="E7" s="63" t="n"/>
       <c r="F7" s="63" t="n"/>
       <c r="G7" s="63" t="n"/>
@@ -1590,5 +1714,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>